--- a/my-app/static/downloads-excel/Reporte_accesos_0123456789_2024_01_25.xlsx
+++ b/my-app/static/downloads-excel/Reporte_accesos_0123456789_2024_01_25.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45316.64163194445</v>
+        <v>45317.15607638889</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -470,7 +470,122 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8CpqW5</t>
+          <t>e75vu1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45317.15604166667</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sala de servidores</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yec6Dr</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45317.15600694445</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sala de servidores</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dAIZyQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45317.15597222222</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sala de servidores</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BjgatR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45317.1559375</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sala de servidores</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FBiwgI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45317.15591435185</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sala de servidores</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AlOzoN</t>
         </is>
       </c>
     </row>
